--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/SOUTH_DAKOTA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/SOUTH_DAKOTA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -807,12 +807,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C32">
@@ -825,7 +825,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C33">
@@ -973,7 +973,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C44">
@@ -1012,7 +1012,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C47">
@@ -1056,7 +1056,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C50">
@@ -1082,7 +1082,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C52">
@@ -1121,7 +1121,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C55">
@@ -1160,7 +1160,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C58">
@@ -1230,7 +1230,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C63">
@@ -1243,7 +1243,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C64">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C67">
@@ -1378,7 +1378,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C74">
@@ -1430,7 +1430,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C78">
@@ -1443,7 +1443,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C79">
@@ -1508,7 +1508,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C84">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C112">
@@ -1910,7 +1910,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C113">
@@ -1923,7 +1923,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C114">
@@ -1962,7 +1962,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C117">
@@ -1988,7 +1988,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C119">
@@ -2014,7 +2014,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C121">
@@ -2084,7 +2084,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C126">
@@ -2097,7 +2097,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C127">
@@ -2110,7 +2110,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C128">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C134">
@@ -2263,7 +2263,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C139">
@@ -2302,7 +2302,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C142">
@@ -2574,7 +2574,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C161">
@@ -2587,7 +2587,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C162">
@@ -2639,7 +2639,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C166">
@@ -2678,7 +2678,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C169">
@@ -2782,76 +2782,6 @@
       </c>
       <c r="D176">
         <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/SOUTH_DAKOTA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/SOUTH_DAKOTA_2016.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>León</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1023,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1158,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1171,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Xochiatipan</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -1311,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1324,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1337,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1350,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Poncitlán</t>
@@ -1363,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Sayula</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1441,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -1454,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -1467,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1493,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -1506,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -1519,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1550,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -1563,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -1576,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1589,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1602,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1615,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Purépero</t>
@@ -1628,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1641,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -1654,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -1667,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1680,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -1693,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -1706,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1719,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1750,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -1763,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1776,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -1789,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1820,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -1833,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1846,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1877,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1908,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -1921,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -1934,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>San Jerónimo Sosola</t>
@@ -1947,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -1960,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1973,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -1986,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Santa Cruz Tacache De Mina</t>
@@ -1999,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -2012,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Zapotitlán Del Río</t>
@@ -2025,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2056,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -2069,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -2082,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Cuetzalan Del Progreso</t>
@@ -2095,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Huitzilan De Serdán</t>
@@ -2108,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -2121,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -2134,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -2147,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -2160,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -2173,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2204,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -2217,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2248,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -2261,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -2274,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -2287,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -2300,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Tanquián De Escobedo</t>
@@ -2313,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2344,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2375,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Huatabampo</t>
@@ -2388,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -2401,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2432,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2463,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Aldama</t>
@@ -2476,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Altamira</t>
@@ -2489,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -2502,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -2515,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -2528,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -2541,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2572,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -2585,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2598,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -2611,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -2624,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -2637,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2650,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2663,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -2676,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -2689,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2702,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2733,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2746,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2759,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Total</t>
